--- a/src/main/java/org/example/p0006/example.xlsx
+++ b/src/main/java/org/example/p0006/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dmytro_Borysov/JavaProjects/LeetCode/src/main/java/org/example/p0006/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42E4938F-392E-9948-BB82-33E0F76C5A31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67223F30-A245-C14B-AF1D-1D037D9C875F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14360" xr2:uid="{CE5C39F7-7077-E546-B027-E47E53C50CA9}"/>
   </bookViews>
@@ -34,12 +34,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="2">
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>+ rows - i</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>A, I, Q, Y, -, B, J, R, Z, -, C, K, S, -, D, L, T, -, E, M, U, -]</t>
   </si>
 </sst>
 </file>
@@ -108,8 +183,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A9FF89-D2CD-464B-BE8F-64F2C3BF3605}">
-  <dimension ref="G1:Q8"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -436,7 +511,7 @@
     <col min="1" max="16384" width="9.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G1" s="3">
         <v>0</v>
       </c>
@@ -471,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="7:17" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,118 +554,291 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="7:17" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="7:17" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="7:17" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="7:17" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="8" spans="7:17" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G8" s="2">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="8" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="2">
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3">
+        <v>11</v>
+      </c>
+      <c r="M9" s="3">
+        <v>12</v>
+      </c>
+      <c r="N9" s="3">
+        <v>13</v>
+      </c>
+      <c r="O9" s="3">
+        <v>14</v>
+      </c>
+      <c r="P9" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>16</v>
+      </c>
+      <c r="R9" s="3">
+        <v>17</v>
+      </c>
+      <c r="S9" s="3">
+        <v>18</v>
+      </c>
+      <c r="T9" s="3">
+        <v>19</v>
+      </c>
+      <c r="U9" s="3">
+        <v>20</v>
+      </c>
+      <c r="V9" s="3">
+        <v>21</v>
+      </c>
+      <c r="W9" s="3">
+        <v>22</v>
+      </c>
+      <c r="X9" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/org/example/p0006/example.xlsx
+++ b/src/main/java/org/example/p0006/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dmytro_Borysov/JavaProjects/LeetCode/src/main/java/org/example/p0006/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67223F30-A245-C14B-AF1D-1D037D9C875F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC75C1-9CB2-EC4E-BCDA-27DE6B3A8FE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14360" xr2:uid="{CE5C39F7-7077-E546-B027-E47E53C50CA9}"/>
   </bookViews>
@@ -114,7 +114,7 @@
     <t>Z</t>
   </si>
   <si>
-    <t>A, I, Q, Y, -, B, J, R, Z, -, C, K, S, -, D, L, T, -, E, M, U, -]</t>
+    <t>[A, -, I, -, Q, -, Y, -, B, H, -, J, P, -, R, X, -, Z, -, C, H, -, K, P, -, S, X, -, D, H, -, L, P, -, T, X, -, E, H, -, M, P, -, U, X, -]</t>
   </si>
 </sst>
 </file>
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -185,6 +185,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A9FF89-D2CD-464B-BE8F-64F2C3BF3605}">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -837,9 +840,12 @@
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="12" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/org/example/p0006/example.xlsx
+++ b/src/main/java/org/example/p0006/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dmytro_Borysov/JavaProjects/LeetCode/src/main/java/org/example/p0006/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC75C1-9CB2-EC4E-BCDA-27DE6B3A8FE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8942890F-3C95-6D49-95D4-0EE7903A0D32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14360" xr2:uid="{CE5C39F7-7077-E546-B027-E47E53C50CA9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>A</t>
   </si>
@@ -114,14 +114,17 @@
     <t>Z</t>
   </si>
   <si>
-    <t>[A, -, I, -, Q, -, Y, -, B, H, -, J, P, -, R, X, -, Z, -, C, H, -, K, P, -, S, X, -, D, H, -, L, P, -, T, X, -, E, H, -, M, P, -, U, X, -]</t>
+    <t>[A, -, I, -, Q, -, Y, -, B, H, -, J, P, -, R, X, -, Z, -, C, G, -, K, O, -, S, W, -, D, F, -, L, N, -, T, V, -, E, E, -, M, M, -, U, U, -]</t>
+  </si>
+  <si>
+    <t>[A, -, I, -, Q, -, Y, -, B, H, -, J, P, -, R, X, -, Z, -, C, G, -, K, O, -, S, W, -, D, F, -, L, N, -, T, V, -, E, -, M, -, U, -]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,6 +138,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.8"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,6 +196,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,18 +514,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A9FF89-D2CD-464B-BE8F-64F2C3BF3605}">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="46" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="9.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="23" customHeight="1">
       <c r="G1" s="3">
         <v>0</v>
       </c>
@@ -549,7 +560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="33" customHeight="1">
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="33" customHeight="1">
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
@@ -601,7 +612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="33" customHeight="1">
       <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
@@ -628,7 +639,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="33" customHeight="1">
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
@@ -655,7 +666,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="33" customHeight="1">
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
@@ -676,7 +687,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="22" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,7 +767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -836,16 +847,90 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="46" customHeight="1">
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="46" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="46" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="E12" s="5"/>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>8</v>
+      </c>
+      <c r="P12" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="46" customHeight="1">
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>7</v>
+      </c>
+      <c r="N13" s="2">
+        <v>9</v>
+      </c>
+      <c r="O13" s="2">
+        <v>15</v>
+      </c>
+      <c r="P13" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="46" customHeight="1">
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>6</v>
+      </c>
+      <c r="N14" s="2">
+        <v>10</v>
+      </c>
+      <c r="O14" s="2">
+        <v>14</v>
+      </c>
+      <c r="P14" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="46" customHeight="1">
+      <c r="L15" s="2">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5</v>
+      </c>
+      <c r="N15" s="2">
+        <v>11</v>
+      </c>
+      <c r="O15" s="2">
+        <v>13</v>
+      </c>
+      <c r="P15" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="46" customHeight="1">
+      <c r="L16" s="2">
+        <v>4</v>
+      </c>
+      <c r="N16" s="2">
+        <v>12</v>
+      </c>
+      <c r="P16" s="2">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
